--- a/data/pca/factorExposure/factorExposure_2017-09-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02408496025188415</v>
+        <v>-0.006983414406110592</v>
       </c>
       <c r="C2">
-        <v>-0.00506988399300573</v>
+        <v>0.04150278849182066</v>
       </c>
       <c r="D2">
-        <v>-0.01658036028491279</v>
+        <v>-0.02958832473218908</v>
       </c>
       <c r="E2">
-        <v>-0.00888844017527953</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03258007996143143</v>
+      </c>
+      <c r="F2">
+        <v>0.02206409910775641</v>
+      </c>
+      <c r="G2">
+        <v>0.04136234108015315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01425765893518097</v>
+        <v>-0.05595919173402829</v>
       </c>
       <c r="C3">
-        <v>-0.05018179600742622</v>
+        <v>0.07075562998875515</v>
       </c>
       <c r="D3">
-        <v>-0.007757156716740482</v>
+        <v>-0.01451814062424363</v>
       </c>
       <c r="E3">
-        <v>-0.002529340453755802</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09936828715221578</v>
+      </c>
+      <c r="F3">
+        <v>0.05651090514791941</v>
+      </c>
+      <c r="G3">
+        <v>0.09920416426120013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02247150009293801</v>
+        <v>-0.05516694836619002</v>
       </c>
       <c r="C4">
-        <v>-0.01919482049855882</v>
+        <v>0.06286579290309441</v>
       </c>
       <c r="D4">
-        <v>-0.06077899511181408</v>
+        <v>-0.02319268524281129</v>
       </c>
       <c r="E4">
-        <v>0.01891957632095772</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01725085001304876</v>
+      </c>
+      <c r="F4">
+        <v>0.007898005567031269</v>
+      </c>
+      <c r="G4">
+        <v>0.05809866242048295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01533403238086983</v>
+        <v>-0.03668013031765548</v>
       </c>
       <c r="C6">
-        <v>-0.02234509916769216</v>
+        <v>0.04920437362224617</v>
       </c>
       <c r="D6">
-        <v>-0.08098497379975701</v>
+        <v>-0.01541964351051536</v>
       </c>
       <c r="E6">
-        <v>0.009128979952138797</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01589987121967732</v>
+      </c>
+      <c r="F6">
+        <v>0.01444717063548222</v>
+      </c>
+      <c r="G6">
+        <v>0.03392097334933263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01016866046553197</v>
+        <v>-0.01534471463677503</v>
       </c>
       <c r="C7">
-        <v>-0.003467811482647615</v>
+        <v>0.03545584632586396</v>
       </c>
       <c r="D7">
-        <v>-0.02988559699728494</v>
+        <v>-0.01336750660001848</v>
       </c>
       <c r="E7">
-        <v>0.07300223015680536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.008356654930299932</v>
+      </c>
+      <c r="F7">
+        <v>0.005352321946892875</v>
+      </c>
+      <c r="G7">
+        <v>0.09492596235758093</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0002493088418826447</v>
+        <v>0.001719987197920544</v>
       </c>
       <c r="C8">
-        <v>0.002141775156317679</v>
+        <v>0.01887085239462958</v>
       </c>
       <c r="D8">
-        <v>-0.00489410462529777</v>
+        <v>-0.003857628515608428</v>
       </c>
       <c r="E8">
-        <v>0.009227839503013919</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02262398906243936</v>
+      </c>
+      <c r="F8">
+        <v>0.02385370247631094</v>
+      </c>
+      <c r="G8">
+        <v>0.03056798971835304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01533822054371775</v>
+        <v>-0.03130374238993333</v>
       </c>
       <c r="C9">
-        <v>-0.01934432521759975</v>
+        <v>0.04413159898060016</v>
       </c>
       <c r="D9">
-        <v>-0.04693466150549599</v>
+        <v>-0.01604664780312876</v>
       </c>
       <c r="E9">
-        <v>0.008617172205238423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01268502993542039</v>
+      </c>
+      <c r="F9">
+        <v>0.01383086754269807</v>
+      </c>
+      <c r="G9">
+        <v>0.05230271697262002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01441468863338486</v>
+        <v>-0.0927130063935723</v>
       </c>
       <c r="C10">
-        <v>-0.1588372208203264</v>
+        <v>-0.1839893781977086</v>
       </c>
       <c r="D10">
-        <v>0.1216931370844249</v>
+        <v>0.01770449585164386</v>
       </c>
       <c r="E10">
-        <v>0.009282301725901438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.009325090952043116</v>
+      </c>
+      <c r="F10">
+        <v>-0.01764232949425453</v>
+      </c>
+      <c r="G10">
+        <v>0.04844758125282439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0004098009656135749</v>
+        <v>-0.03099830330334165</v>
       </c>
       <c r="C11">
-        <v>-0.00810467815987586</v>
+        <v>0.05419782035604975</v>
       </c>
       <c r="D11">
-        <v>-0.04372861319310566</v>
+        <v>-0.002356801943155085</v>
       </c>
       <c r="E11">
-        <v>-0.006401787616909242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.007150504223144169</v>
+      </c>
+      <c r="F11">
+        <v>0.02439830071854264</v>
+      </c>
+      <c r="G11">
+        <v>0.03319784001188737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005800746493874245</v>
+        <v>-0.03092204441406705</v>
       </c>
       <c r="C12">
-        <v>-0.01583521191381449</v>
+        <v>0.04663241052000493</v>
       </c>
       <c r="D12">
-        <v>-0.04494342631824531</v>
+        <v>-0.006324410898362018</v>
       </c>
       <c r="E12">
-        <v>0.002599072119724538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.001003676376644775</v>
+      </c>
+      <c r="F12">
+        <v>0.008436162526442647</v>
+      </c>
+      <c r="G12">
+        <v>0.03513048561231527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0220146687578737</v>
+        <v>-0.01408240185152914</v>
       </c>
       <c r="C13">
-        <v>-0.01710171204422852</v>
+        <v>0.03155983341674511</v>
       </c>
       <c r="D13">
-        <v>-0.01508297326393158</v>
+        <v>-0.02503997978329934</v>
       </c>
       <c r="E13">
-        <v>-0.007652215243126761</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.0227948213804206</v>
+      </c>
+      <c r="F13">
+        <v>0.01235045095282954</v>
+      </c>
+      <c r="G13">
+        <v>0.05059651229666062</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007206085213589925</v>
+        <v>-0.007618487426668636</v>
       </c>
       <c r="C14">
-        <v>-0.01267324607180132</v>
+        <v>0.0255904830514249</v>
       </c>
       <c r="D14">
-        <v>-0.01482937258024399</v>
+        <v>-0.008693410931608272</v>
       </c>
       <c r="E14">
-        <v>0.01224606070724315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.004813221770035715</v>
+      </c>
+      <c r="F14">
+        <v>-0.002679702842374163</v>
+      </c>
+      <c r="G14">
+        <v>0.05195550970832268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001055305475033932</v>
+        <v>-0.03066530362998432</v>
       </c>
       <c r="C16">
-        <v>-0.01559387670043105</v>
+        <v>0.04480754071729359</v>
       </c>
       <c r="D16">
-        <v>-0.04609658393779509</v>
+        <v>-0.001749635932329828</v>
       </c>
       <c r="E16">
-        <v>0.0007468420778672952</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.006537763560313951</v>
+      </c>
+      <c r="F16">
+        <v>0.01126097403070284</v>
+      </c>
+      <c r="G16">
+        <v>0.03373786491963539</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01319978132508067</v>
+        <v>-0.02377651678266653</v>
       </c>
       <c r="C19">
-        <v>-0.0228953786026348</v>
+        <v>0.0491295455078692</v>
       </c>
       <c r="D19">
-        <v>-0.02126472169219392</v>
+        <v>-0.01634106121770211</v>
       </c>
       <c r="E19">
-        <v>0.004758002926390689</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05449761604871249</v>
+      </c>
+      <c r="F19">
+        <v>0.02632863929183468</v>
+      </c>
+      <c r="G19">
+        <v>0.06132437285772615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01040146735527648</v>
+        <v>-0.01156571198758232</v>
       </c>
       <c r="C20">
-        <v>-0.007463984273856985</v>
+        <v>0.03323219057350795</v>
       </c>
       <c r="D20">
-        <v>-0.01054051123913903</v>
+        <v>-0.01321593459326053</v>
       </c>
       <c r="E20">
-        <v>0.0004684133662808784</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.0242444028319999</v>
+      </c>
+      <c r="F20">
+        <v>-0.0007735571510804215</v>
+      </c>
+      <c r="G20">
+        <v>0.05118128781109228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01472840438671145</v>
+        <v>-0.0132184459971393</v>
       </c>
       <c r="C21">
-        <v>-0.03251005280694243</v>
+        <v>0.03401388843585174</v>
       </c>
       <c r="D21">
-        <v>-0.01923211548102101</v>
+        <v>-0.01656234627843184</v>
       </c>
       <c r="E21">
-        <v>0.0183453178137487</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03126506261100683</v>
+      </c>
+      <c r="F21">
+        <v>0.004755083825944416</v>
+      </c>
+      <c r="G21">
+        <v>0.0734716176097604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.00486670172755669</v>
+        <v>-0.02424043115607185</v>
       </c>
       <c r="C24">
-        <v>-0.006123662543230902</v>
+        <v>0.04835391087655036</v>
       </c>
       <c r="D24">
-        <v>-0.04400094581495061</v>
+        <v>-0.007301925673111337</v>
       </c>
       <c r="E24">
-        <v>-0.0007768571843897929</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.002998477436313966</v>
+      </c>
+      <c r="F24">
+        <v>0.02090916622375293</v>
+      </c>
+      <c r="G24">
+        <v>0.03599527953784193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01175995660552216</v>
+        <v>-0.03897252170795876</v>
       </c>
       <c r="C25">
-        <v>-0.02378173213932577</v>
+        <v>0.05588179849465942</v>
       </c>
       <c r="D25">
-        <v>-0.04373269237277484</v>
+        <v>-0.01140617329836493</v>
       </c>
       <c r="E25">
-        <v>-0.0002790009434062955</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.004204022509556087</v>
+      </c>
+      <c r="F25">
+        <v>0.0162092018452572</v>
+      </c>
+      <c r="G25">
+        <v>0.04256301279531194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02276438105468456</v>
+        <v>-0.01148384834623763</v>
       </c>
       <c r="C26">
-        <v>-0.01001202109706875</v>
+        <v>0.007710648308947651</v>
       </c>
       <c r="D26">
-        <v>0.005814114230409918</v>
+        <v>-0.02341039858156952</v>
       </c>
       <c r="E26">
-        <v>0.009125814640178235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.003397629168160968</v>
+      </c>
+      <c r="F26">
+        <v>-0.00263306953959257</v>
+      </c>
+      <c r="G26">
+        <v>0.03993588901052431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.034553027268862</v>
+        <v>-0.1197287850995336</v>
       </c>
       <c r="C28">
-        <v>-0.2315094412682131</v>
+        <v>-0.2302461517197593</v>
       </c>
       <c r="D28">
-        <v>0.1748341833440669</v>
+        <v>0.008744509271333406</v>
       </c>
       <c r="E28">
-        <v>0.0175579842625556</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.00233329287752483</v>
+      </c>
+      <c r="F28">
+        <v>-0.01585274372531293</v>
+      </c>
+      <c r="G28">
+        <v>0.06554347011698589</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007545755197821659</v>
+        <v>-0.01032613777755124</v>
       </c>
       <c r="C29">
-        <v>-0.01801705118368355</v>
+        <v>0.01906987738919009</v>
       </c>
       <c r="D29">
-        <v>-0.01038218330967497</v>
+        <v>-0.007463161270743274</v>
       </c>
       <c r="E29">
-        <v>0.007184945806736285</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.007274888021251919</v>
+      </c>
+      <c r="F29">
+        <v>-0.01175947872588037</v>
+      </c>
+      <c r="G29">
+        <v>0.04236659902245678</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02320962714654869</v>
+        <v>-0.04434916518344171</v>
       </c>
       <c r="C30">
-        <v>-0.004249687147154932</v>
+        <v>0.06381139929388285</v>
       </c>
       <c r="D30">
-        <v>-0.06785202909378639</v>
+        <v>-0.02759205998841751</v>
       </c>
       <c r="E30">
-        <v>-0.05411086479658725</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04350446300505275</v>
+      </c>
+      <c r="F30">
+        <v>0.05403350002329019</v>
+      </c>
+      <c r="G30">
+        <v>0.02412621114667413</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.008345469764227923</v>
+        <v>-0.04934726863711004</v>
       </c>
       <c r="C31">
-        <v>-0.04555096873208037</v>
+        <v>0.03424970185441947</v>
       </c>
       <c r="D31">
-        <v>-0.04216430973076633</v>
+        <v>-0.003593478606520302</v>
       </c>
       <c r="E31">
-        <v>0.01044720338273609</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.005481096534490518</v>
+      </c>
+      <c r="F31">
+        <v>-0.03424137534320654</v>
+      </c>
+      <c r="G31">
+        <v>0.04376933747675934</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006743530766708508</v>
+        <v>0.004090951371571311</v>
       </c>
       <c r="C32">
-        <v>-0.02041342289242711</v>
+        <v>0.02960424296599539</v>
       </c>
       <c r="D32">
-        <v>0.004077913764608832</v>
+        <v>0.003984383467185232</v>
       </c>
       <c r="E32">
-        <v>0.03081861999887901</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01445528532105764</v>
+      </c>
+      <c r="F32">
+        <v>0.05104995998059289</v>
+      </c>
+      <c r="G32">
+        <v>0.06363681552778051</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01277704078897668</v>
+        <v>-0.0262950676938164</v>
       </c>
       <c r="C33">
-        <v>-0.02507046403924336</v>
+        <v>0.04637138946479227</v>
       </c>
       <c r="D33">
-        <v>-0.02258678348643146</v>
+        <v>-0.01453825576415764</v>
       </c>
       <c r="E33">
-        <v>-0.02188172447998031</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02689132945379613</v>
+      </c>
+      <c r="F33">
+        <v>0.0256399262716838</v>
+      </c>
+      <c r="G33">
+        <v>0.05451214145615969</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004533210770537278</v>
+        <v>-0.03834217078443253</v>
       </c>
       <c r="C34">
-        <v>-0.02088828469001465</v>
+        <v>0.05838811443829842</v>
       </c>
       <c r="D34">
-        <v>-0.04703151409416695</v>
+        <v>0.004418624055250987</v>
       </c>
       <c r="E34">
-        <v>0.008427601522976785</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.003929476856901304</v>
+      </c>
+      <c r="F34">
+        <v>0.02636159552723044</v>
+      </c>
+      <c r="G34">
+        <v>0.04658567978618687</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01243657613101681</v>
+        <v>-0.01154551801263805</v>
       </c>
       <c r="C36">
-        <v>-0.0216073491909918</v>
+        <v>0.007253682960011267</v>
       </c>
       <c r="D36">
-        <v>-0.001997067497032364</v>
+        <v>-0.01153057091876716</v>
       </c>
       <c r="E36">
-        <v>0.003628998861964663</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0005638307130587042</v>
+      </c>
+      <c r="F36">
+        <v>-0.005507951485571358</v>
+      </c>
+      <c r="G36">
+        <v>0.03595821709737843</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.004666308090373232</v>
+        <v>-0.03149855478518025</v>
       </c>
       <c r="C38">
-        <v>-0.03463814615558095</v>
+        <v>0.02863177196679195</v>
       </c>
       <c r="D38">
-        <v>-0.02624790077147136</v>
+        <v>0.007433717518669102</v>
       </c>
       <c r="E38">
-        <v>0.001743188904200011</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.005430433789035546</v>
+      </c>
+      <c r="F38">
+        <v>-0.00833545142234029</v>
+      </c>
+      <c r="G38">
+        <v>0.04372835811184941</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.00578104435748362</v>
+        <v>-0.03084898346064042</v>
       </c>
       <c r="C39">
-        <v>0.0136323894234467</v>
+        <v>0.08188375075435181</v>
       </c>
       <c r="D39">
-        <v>-0.09386330938999551</v>
+        <v>-0.01222314980297777</v>
       </c>
       <c r="E39">
-        <v>-0.003521116776762359</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02140459998947736</v>
+      </c>
+      <c r="F39">
+        <v>0.03735846659312795</v>
+      </c>
+      <c r="G39">
+        <v>0.03959804633960461</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01140553265748053</v>
+        <v>-0.01900191603034827</v>
       </c>
       <c r="C40">
-        <v>-0.01938613483670448</v>
+        <v>0.03221094776853228</v>
       </c>
       <c r="D40">
-        <v>-0.02888585077995165</v>
+        <v>-0.01328229925782341</v>
       </c>
       <c r="E40">
-        <v>-0.0009881858489634162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01973607852937617</v>
+      </c>
+      <c r="F40">
+        <v>0.01929328962132877</v>
+      </c>
+      <c r="G40">
+        <v>0.03743973797028988</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005556887210000739</v>
+        <v>-0.01088052167019154</v>
       </c>
       <c r="C41">
-        <v>-0.02100395157330704</v>
+        <v>0.001285909062027266</v>
       </c>
       <c r="D41">
-        <v>0.008792178057953452</v>
+        <v>-0.004067971041477139</v>
       </c>
       <c r="E41">
-        <v>0.002708547184872909</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.0009340091678257813</v>
+      </c>
+      <c r="F41">
+        <v>0.001163669594378166</v>
+      </c>
+      <c r="G41">
+        <v>0.02489930716137332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09274371807504828</v>
+        <v>-0.01482796118958082</v>
       </c>
       <c r="C42">
-        <v>0.00379077727177737</v>
+        <v>0.04158437978907573</v>
       </c>
       <c r="D42">
-        <v>-0.2797310054781044</v>
+        <v>-0.09438114438880822</v>
       </c>
       <c r="E42">
-        <v>-0.2582212377144668</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.03612972337168472</v>
+      </c>
+      <c r="F42">
+        <v>-0.04553618970872046</v>
+      </c>
+      <c r="G42">
+        <v>-0.1550537471704138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.006813833278647456</v>
+        <v>-0.02878600296305052</v>
       </c>
       <c r="C43">
-        <v>-0.02409900172343269</v>
+        <v>0.0126049008640063</v>
       </c>
       <c r="D43">
-        <v>0.01284130976388565</v>
+        <v>-0.00476780719914886</v>
       </c>
       <c r="E43">
-        <v>-0.003844548794380217</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.008555645380707379</v>
+      </c>
+      <c r="F43">
+        <v>-0.0001278835554898669</v>
+      </c>
+      <c r="G43">
+        <v>0.0360379752573873</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.003296337457710034</v>
+        <v>-0.0136676642885345</v>
       </c>
       <c r="C44">
-        <v>-0.007591186444386356</v>
+        <v>0.04845068055567384</v>
       </c>
       <c r="D44">
-        <v>-0.0277716682253621</v>
+        <v>-0.006467173587944774</v>
       </c>
       <c r="E44">
-        <v>0.004126358391478736</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01730704071261598</v>
+      </c>
+      <c r="F44">
+        <v>0.005159308258525012</v>
+      </c>
+      <c r="G44">
+        <v>0.05390355083277348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0105903950437818</v>
+        <v>-0.004497397637266594</v>
       </c>
       <c r="C46">
-        <v>-0.01615165724629762</v>
+        <v>0.0176473705597136</v>
       </c>
       <c r="D46">
-        <v>-0.01169632930133041</v>
+        <v>-0.01165282070052324</v>
       </c>
       <c r="E46">
-        <v>0.002168502700079328</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.005376833538792768</v>
+      </c>
+      <c r="F46">
+        <v>-0.01534355633424838</v>
+      </c>
+      <c r="G46">
+        <v>0.03945941950402565</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.002474225691382089</v>
+        <v>-0.07509486483824308</v>
       </c>
       <c r="C47">
-        <v>-0.05798035688824883</v>
+        <v>0.06662441697853087</v>
       </c>
       <c r="D47">
-        <v>-0.05639173803957319</v>
+        <v>0.004712159425816433</v>
       </c>
       <c r="E47">
-        <v>-0.0001723323621353558</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.009191127077114704</v>
+      </c>
+      <c r="F47">
+        <v>-0.05187033929633124</v>
+      </c>
+      <c r="G47">
+        <v>0.03946172606097307</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.003256654728348506</v>
+        <v>-0.0197581647908072</v>
       </c>
       <c r="C48">
-        <v>-0.02787909737871013</v>
+        <v>0.009115512962256572</v>
       </c>
       <c r="D48">
-        <v>-0.009862160428409279</v>
+        <v>-0.000898713879415882</v>
       </c>
       <c r="E48">
-        <v>0.00443508121037196</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.003964607698804991</v>
+      </c>
+      <c r="F48">
+        <v>-0.01508992533049318</v>
+      </c>
+      <c r="G48">
+        <v>0.04242979414374606</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.003569360082118334</v>
+        <v>-0.07777570392851771</v>
       </c>
       <c r="C50">
-        <v>-0.05079681042878497</v>
+        <v>0.06818539210641232</v>
       </c>
       <c r="D50">
-        <v>-0.05983613613236501</v>
+        <v>0.003039512628798695</v>
       </c>
       <c r="E50">
-        <v>0.02749201528664139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01283635479115526</v>
+      </c>
+      <c r="F50">
+        <v>-0.05428375451990666</v>
+      </c>
+      <c r="G50">
+        <v>0.06446902214910059</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006858459309247475</v>
+        <v>-0.01094762552846891</v>
       </c>
       <c r="C51">
-        <v>-0.01878958210520551</v>
+        <v>0.02977334626000125</v>
       </c>
       <c r="D51">
-        <v>0.001999387882929919</v>
+        <v>-0.009126439687405124</v>
       </c>
       <c r="E51">
-        <v>0.003869208421785122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.009603860220488222</v>
+      </c>
+      <c r="F51">
+        <v>0.02096376575680449</v>
+      </c>
+      <c r="G51">
+        <v>0.06203421974059789</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.005339821170912861</v>
+        <v>-0.08218983109254667</v>
       </c>
       <c r="C53">
-        <v>-0.0717519145013044</v>
+        <v>0.08120173329674679</v>
       </c>
       <c r="D53">
-        <v>-0.1140946340037749</v>
+        <v>0.004066531021961678</v>
       </c>
       <c r="E53">
-        <v>0.01202729984486846</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03283578508581604</v>
+      </c>
+      <c r="F53">
+        <v>-0.05582749373786625</v>
+      </c>
+      <c r="G53">
+        <v>0.04097699274192304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-9.372891207540422e-05</v>
+        <v>-0.03085498377822605</v>
       </c>
       <c r="C54">
-        <v>-0.03537546019830568</v>
+        <v>0.01214013952198904</v>
       </c>
       <c r="D54">
-        <v>0.009136428589907869</v>
+        <v>0.002860298291992015</v>
       </c>
       <c r="E54">
-        <v>0.01063101879663371</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.001107230267882866</v>
+      </c>
+      <c r="F54">
+        <v>-0.004491340178259428</v>
+      </c>
+      <c r="G54">
+        <v>0.04575277278948596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.002565975603603722</v>
+        <v>-0.06990831662515962</v>
       </c>
       <c r="C55">
-        <v>-0.0525210088503916</v>
+        <v>0.07277822217607166</v>
       </c>
       <c r="D55">
-        <v>-0.09995084738495857</v>
+        <v>0.004471471386232277</v>
       </c>
       <c r="E55">
-        <v>-0.0009073720104127254</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.0243509486118727</v>
+      </c>
+      <c r="F55">
+        <v>-0.05494270668863944</v>
+      </c>
+      <c r="G55">
+        <v>0.02285147379230265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.003483061230394206</v>
+        <v>-0.1407196557480557</v>
       </c>
       <c r="C56">
-        <v>-0.09894143725544878</v>
+        <v>0.1065943501935211</v>
       </c>
       <c r="D56">
-        <v>-0.1457458526622315</v>
+        <v>0.01254686902060035</v>
       </c>
       <c r="E56">
-        <v>0.00225719822052312</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03734061264287354</v>
+      </c>
+      <c r="F56">
+        <v>-0.07899249255633525</v>
+      </c>
+      <c r="G56">
+        <v>0.01012637610835142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02390429312545698</v>
+        <v>-0.009583374646081777</v>
       </c>
       <c r="C57">
-        <v>-0.0239649120441045</v>
+        <v>0.01010730405305427</v>
       </c>
       <c r="D57">
-        <v>-0.04280563238869572</v>
+        <v>-0.02355268261304283</v>
       </c>
       <c r="E57">
-        <v>-0.001453034013772234</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02640370174399065</v>
+      </c>
+      <c r="F57">
+        <v>0.01393956453582547</v>
+      </c>
+      <c r="G57">
+        <v>0.02466163084917649</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01118156186263961</v>
+        <v>-0.08267601743608492</v>
       </c>
       <c r="C58">
-        <v>-0.09626977969785597</v>
+        <v>0.03263076260732686</v>
       </c>
       <c r="D58">
-        <v>-0.09209187489307169</v>
+        <v>-0.01497502311876367</v>
       </c>
       <c r="E58">
-        <v>-0.2038556789995706</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9460407028514105</v>
+      </c>
+      <c r="F58">
+        <v>-0.2187130848442836</v>
+      </c>
+      <c r="G58">
+        <v>-0.01433286312558205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.03073572504576488</v>
+        <v>-0.1600731453749112</v>
       </c>
       <c r="C59">
-        <v>-0.2446367719512049</v>
+        <v>-0.2109993287245238</v>
       </c>
       <c r="D59">
-        <v>0.1750037308959483</v>
+        <v>0.01603065012772906</v>
       </c>
       <c r="E59">
-        <v>-0.006892957058302037</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.00165254697951572</v>
+      </c>
+      <c r="F59">
+        <v>0.0009674184505656779</v>
+      </c>
+      <c r="G59">
+        <v>0.02171669098021925</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.0350448457068061</v>
+        <v>-0.2874832963368698</v>
       </c>
       <c r="C60">
-        <v>-0.1595345277321177</v>
+        <v>0.1031482771243361</v>
       </c>
       <c r="D60">
-        <v>-0.07998118959582365</v>
+        <v>-0.01115488032136863</v>
       </c>
       <c r="E60">
-        <v>-0.03709250272588863</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.005601568163744481</v>
+      </c>
+      <c r="F60">
+        <v>0.3546120360513236</v>
+      </c>
+      <c r="G60">
+        <v>-0.1000542780389439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003519759704083408</v>
+        <v>-0.03273158294323242</v>
       </c>
       <c r="C61">
-        <v>-0.01158186865477897</v>
+        <v>0.06543185328899742</v>
       </c>
       <c r="D61">
-        <v>-0.06293972645987952</v>
+        <v>-0.00558806365533155</v>
       </c>
       <c r="E61">
-        <v>0.001359397060163994</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01035853810470465</v>
+      </c>
+      <c r="F61">
+        <v>0.02265708563525701</v>
+      </c>
+      <c r="G61">
+        <v>0.03615785514001196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007374099311505988</v>
+        <v>-0.01227137383082456</v>
       </c>
       <c r="C63">
-        <v>-0.008691783652158504</v>
+        <v>0.02780580078334955</v>
       </c>
       <c r="D63">
-        <v>-0.006843267880568443</v>
+        <v>-0.00812524272482879</v>
       </c>
       <c r="E63">
-        <v>0.00996662280542702</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.004030231813885957</v>
+      </c>
+      <c r="F63">
+        <v>-0.01489748039946654</v>
+      </c>
+      <c r="G63">
+        <v>0.04625136276630492</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.007708698705622644</v>
+        <v>-0.04956869878874827</v>
       </c>
       <c r="C64">
-        <v>-0.03268278174650716</v>
+        <v>0.0430461848704403</v>
       </c>
       <c r="D64">
-        <v>-0.06588190915893159</v>
+        <v>-0.00565443791485889</v>
       </c>
       <c r="E64">
-        <v>-0.008804604513498163</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.006567074115191556</v>
+      </c>
+      <c r="F64">
+        <v>0.005254727624104423</v>
+      </c>
+      <c r="G64">
+        <v>0.03142430680116683</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01769423520657269</v>
+        <v>-0.08442210266991555</v>
       </c>
       <c r="C65">
-        <v>-0.02671252534111186</v>
+        <v>0.05931973958841492</v>
       </c>
       <c r="D65">
-        <v>-0.09164146766377132</v>
+        <v>-0.01471821126190367</v>
       </c>
       <c r="E65">
-        <v>0.008632692882634761</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01700598467882122</v>
+      </c>
+      <c r="F65">
+        <v>0.0362384033420718</v>
+      </c>
+      <c r="G65">
+        <v>0.01532516614493042</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005561790210401853</v>
+        <v>-0.04885464123706947</v>
       </c>
       <c r="C66">
-        <v>0.004115114299202864</v>
+        <v>0.113652408191726</v>
       </c>
       <c r="D66">
-        <v>-0.1202745169786622</v>
+        <v>-0.01212350557415448</v>
       </c>
       <c r="E66">
-        <v>-0.01602878077335208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02765709051433252</v>
+      </c>
+      <c r="F66">
+        <v>0.04719132019461639</v>
+      </c>
+      <c r="G66">
+        <v>0.03475699032265448</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.001062968448385043</v>
+        <v>-0.05378532437135178</v>
       </c>
       <c r="C67">
-        <v>-0.05437920088028577</v>
+        <v>0.03290062924747002</v>
       </c>
       <c r="D67">
-        <v>-0.03131610389534077</v>
+        <v>0.005532564199628171</v>
       </c>
       <c r="E67">
-        <v>-0.001050985127491399</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.0009984412206414522</v>
+      </c>
+      <c r="F67">
+        <v>-0.01151113074206014</v>
+      </c>
+      <c r="G67">
+        <v>0.039809394949658</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04867962900615599</v>
+        <v>-0.1429749867010366</v>
       </c>
       <c r="C68">
-        <v>-0.2196983411344338</v>
+        <v>-0.2694172706509853</v>
       </c>
       <c r="D68">
-        <v>0.1622325571536497</v>
+        <v>-0.002327852931355913</v>
       </c>
       <c r="E68">
-        <v>-0.01176611127846206</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.003256614200915217</v>
+      </c>
+      <c r="F68">
+        <v>-0.03824120267310016</v>
+      </c>
+      <c r="G68">
+        <v>0.0232830478062798</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.002267376205382151</v>
+        <v>-0.07539504547552835</v>
       </c>
       <c r="C69">
-        <v>-0.0459952102455564</v>
+        <v>0.06826226271144752</v>
       </c>
       <c r="D69">
-        <v>-0.06148297118916565</v>
+        <v>0.008452007661237321</v>
       </c>
       <c r="E69">
-        <v>0.003373137183801091</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02659932665281275</v>
+      </c>
+      <c r="F69">
+        <v>-0.03794283277113522</v>
+      </c>
+      <c r="G69">
+        <v>0.04512873877291971</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.03518165253895461</v>
+        <v>-0.1372275796251897</v>
       </c>
       <c r="C71">
-        <v>-0.1953857155187786</v>
+        <v>-0.2328901173832472</v>
       </c>
       <c r="D71">
-        <v>0.1491664442584315</v>
+        <v>0.006574387258685272</v>
       </c>
       <c r="E71">
-        <v>0.001341382385725267</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02169890690228173</v>
+      </c>
+      <c r="F71">
+        <v>-0.00912552234408682</v>
+      </c>
+      <c r="G71">
+        <v>0.03758387506869593</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.001125331840380028</v>
+        <v>-0.0842871746819035</v>
       </c>
       <c r="C72">
-        <v>-0.05404405507522819</v>
+        <v>0.07325321313869956</v>
       </c>
       <c r="D72">
-        <v>-0.1323830656006905</v>
+        <v>0.008322604422516058</v>
       </c>
       <c r="E72">
-        <v>-0.0159210964983746</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.006113252019249319</v>
+      </c>
+      <c r="F72">
+        <v>0.04164327343200626</v>
+      </c>
+      <c r="G72">
+        <v>0.01394078600123628</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04913559534585566</v>
+        <v>-0.3982478905788895</v>
       </c>
       <c r="C73">
-        <v>-0.1957909853580714</v>
+        <v>0.1153332869633414</v>
       </c>
       <c r="D73">
-        <v>-0.1640098510473131</v>
+        <v>-0.017066548853447</v>
       </c>
       <c r="E73">
-        <v>-0.09110896149781024</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.05338937624504381</v>
+      </c>
+      <c r="F73">
+        <v>0.552148514427086</v>
+      </c>
+      <c r="G73">
+        <v>-0.1784615697796525</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.001267996399394363</v>
+        <v>-0.1103224450526491</v>
       </c>
       <c r="C74">
-        <v>-0.09082270484328059</v>
+        <v>0.1169326210060454</v>
       </c>
       <c r="D74">
-        <v>-0.1525674711716529</v>
+        <v>0.009546337838391303</v>
       </c>
       <c r="E74">
-        <v>-0.004742778507151499</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01541150942166384</v>
+      </c>
+      <c r="F74">
+        <v>-0.07189983074882139</v>
+      </c>
+      <c r="G74">
+        <v>0.04847610614264787</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.006497357319591258</v>
+        <v>-0.2483544004198341</v>
       </c>
       <c r="C75">
-        <v>-0.2036007770207523</v>
+        <v>0.1582471697650439</v>
       </c>
       <c r="D75">
-        <v>-0.2769729165233561</v>
+        <v>0.02937380710291373</v>
       </c>
       <c r="E75">
-        <v>-0.0195451416526422</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05308115303280361</v>
+      </c>
+      <c r="F75">
+        <v>-0.1862815629561552</v>
+      </c>
+      <c r="G75">
+        <v>-0.03535135881256653</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.002544394813227927</v>
+        <v>-0.1242332099144579</v>
       </c>
       <c r="C76">
-        <v>-0.1372221937836527</v>
+        <v>0.1171401412437463</v>
       </c>
       <c r="D76">
-        <v>-0.217974421378044</v>
+        <v>0.02030316460450863</v>
       </c>
       <c r="E76">
-        <v>0.01415529542908139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0477786934978216</v>
+      </c>
+      <c r="F76">
+        <v>-0.118782548893812</v>
+      </c>
+      <c r="G76">
+        <v>0.02700668619257818</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0122045546846461</v>
+        <v>-0.06501994062887868</v>
       </c>
       <c r="C77">
-        <v>-0.02278469578589392</v>
+        <v>0.06106543419410308</v>
       </c>
       <c r="D77">
-        <v>-0.05362787865507285</v>
+        <v>-0.01211777248782778</v>
       </c>
       <c r="E77">
-        <v>-0.005681461634632022</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04963740899518795</v>
+      </c>
+      <c r="F77">
+        <v>0.01591553108534615</v>
+      </c>
+      <c r="G77">
+        <v>0.04908296336237392</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.004054497418800974</v>
+        <v>-0.04085707205198471</v>
       </c>
       <c r="C78">
-        <v>-0.01379454388866416</v>
+        <v>0.0513260568622017</v>
       </c>
       <c r="D78">
-        <v>-0.06371561921367151</v>
+        <v>-0.005552041266797566</v>
       </c>
       <c r="E78">
-        <v>0.003944337763185036</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02049093787244434</v>
+      </c>
+      <c r="F78">
+        <v>0.04453880196154687</v>
+      </c>
+      <c r="G78">
+        <v>0.04328441001751203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01607882929931859</v>
+        <v>-0.05373567260881123</v>
       </c>
       <c r="C80">
-        <v>-0.1159450434658091</v>
+        <v>0.06202952489251819</v>
       </c>
       <c r="D80">
-        <v>-0.1395848833505803</v>
+        <v>-0.01317457776811086</v>
       </c>
       <c r="E80">
-        <v>0.9189168872980632</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03543560706374427</v>
+      </c>
+      <c r="F80">
+        <v>0.04722083565463815</v>
+      </c>
+      <c r="G80">
+        <v>0.8660243433149983</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.005140646070933163</v>
+        <v>-0.1439154472210219</v>
       </c>
       <c r="C81">
-        <v>-0.1273871206407901</v>
+        <v>0.09411596912719045</v>
       </c>
       <c r="D81">
-        <v>-0.1634133578147264</v>
+        <v>0.01484274253674887</v>
       </c>
       <c r="E81">
-        <v>-0.002039815006160326</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03009544134773128</v>
+      </c>
+      <c r="F81">
+        <v>-0.1223084876898765</v>
+      </c>
+      <c r="G81">
+        <v>0.02249325647329837</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.09665693293454261</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.05489138764203799</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.004525896381690366</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.07628253366623414</v>
+      </c>
+      <c r="F82">
+        <v>-0.01241525539533363</v>
+      </c>
+      <c r="G82">
+        <v>0.01390829903072476</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006990014606273408</v>
+        <v>-0.02986947600080848</v>
       </c>
       <c r="C83">
-        <v>-0.02606680429476775</v>
+        <v>0.02103541696337775</v>
       </c>
       <c r="D83">
-        <v>-0.02320512172623023</v>
+        <v>-0.005218732124941894</v>
       </c>
       <c r="E83">
-        <v>-0.003023707582469131</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02418192301343171</v>
+      </c>
+      <c r="F83">
+        <v>0.02204311077098801</v>
+      </c>
+      <c r="G83">
+        <v>0.03037396552316668</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01316264557113911</v>
+        <v>-0.2226660520298715</v>
       </c>
       <c r="C85">
-        <v>-0.1583058106057934</v>
+        <v>0.1503318766437519</v>
       </c>
       <c r="D85">
-        <v>-0.2592662022734346</v>
+        <v>0.01780479120702696</v>
       </c>
       <c r="E85">
-        <v>-0.0245412243448641</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.09398782670920959</v>
+      </c>
+      <c r="F85">
+        <v>-0.1581941315319516</v>
+      </c>
+      <c r="G85">
+        <v>-0.05944979046413452</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.007329162602975865</v>
+        <v>-0.009489187957786279</v>
       </c>
       <c r="C86">
-        <v>-0.02679423404031923</v>
+        <v>0.01681608258805395</v>
       </c>
       <c r="D86">
-        <v>-0.009930998071363009</v>
+        <v>-0.01025149943946709</v>
       </c>
       <c r="E86">
-        <v>-0.02003121079730035</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03319586439129828</v>
+      </c>
+      <c r="F86">
+        <v>0.03210714118096236</v>
+      </c>
+      <c r="G86">
+        <v>0.07670008088710206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007372163766823</v>
+        <v>-0.01960153964196896</v>
       </c>
       <c r="C87">
-        <v>-0.01486436581153574</v>
+        <v>0.02411182879481217</v>
       </c>
       <c r="D87">
-        <v>-0.04278238158458406</v>
+        <v>-0.01063478771745112</v>
       </c>
       <c r="E87">
-        <v>-0.002497964646014468</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08224979028188324</v>
+      </c>
+      <c r="F87">
+        <v>0.02866235024505285</v>
+      </c>
+      <c r="G87">
+        <v>0.05814072164266474</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02657846629712558</v>
+        <v>-0.08801388039377135</v>
       </c>
       <c r="C88">
-        <v>-0.03665546104579651</v>
+        <v>0.06528147162177686</v>
       </c>
       <c r="D88">
-        <v>-0.03845802345255622</v>
+        <v>-0.02292333177336513</v>
       </c>
       <c r="E88">
-        <v>-0.002127130769156273</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01358855077051262</v>
+      </c>
+      <c r="F88">
+        <v>-0.01488759354342125</v>
+      </c>
+      <c r="G88">
+        <v>0.03524598376399902</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.06729697297534736</v>
+        <v>-0.2264960481422618</v>
       </c>
       <c r="C89">
-        <v>-0.3620226029242265</v>
+        <v>-0.3644034758779281</v>
       </c>
       <c r="D89">
-        <v>0.2564475108993857</v>
+        <v>0.005555182413275098</v>
       </c>
       <c r="E89">
-        <v>-0.02311580908343084</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02211930898969406</v>
+      </c>
+      <c r="F89">
+        <v>-0.02680175093924242</v>
+      </c>
+      <c r="G89">
+        <v>0.03582442064156631</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.05058835374332047</v>
+        <v>-0.1993048462483031</v>
       </c>
       <c r="C90">
-        <v>-0.2724569844544946</v>
+        <v>-0.3288694946227964</v>
       </c>
       <c r="D90">
-        <v>0.2281485713589539</v>
+        <v>0.009486264942774806</v>
       </c>
       <c r="E90">
-        <v>-0.02383242506589214</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.02187000271734386</v>
+      </c>
+      <c r="F90">
+        <v>-0.0464608392211049</v>
+      </c>
+      <c r="G90">
+        <v>0.005844944650659656</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.002399088914688123</v>
+        <v>-0.1979098254858496</v>
       </c>
       <c r="C91">
-        <v>-0.1662775513171474</v>
+        <v>0.1405807094373958</v>
       </c>
       <c r="D91">
-        <v>-0.2290832878704085</v>
+        <v>0.02337012591863279</v>
       </c>
       <c r="E91">
-        <v>-0.003670154653394444</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07046159264867705</v>
+      </c>
+      <c r="F91">
+        <v>-0.1619910375533372</v>
+      </c>
+      <c r="G91">
+        <v>0.00940742222602154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.01756038081353924</v>
+        <v>-0.2045929101439494</v>
       </c>
       <c r="C92">
-        <v>-0.3115493011555358</v>
+        <v>-0.262580047521935</v>
       </c>
       <c r="D92">
-        <v>0.1140360179681715</v>
+        <v>0.0458900311949752</v>
       </c>
       <c r="E92">
-        <v>-0.01429873130872128</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.003694868244428578</v>
+      </c>
+      <c r="F92">
+        <v>-0.07595687309668125</v>
+      </c>
+      <c r="G92">
+        <v>0.07480898488090343</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.04839222820448096</v>
+        <v>-0.2295154456129397</v>
       </c>
       <c r="C93">
-        <v>-0.3045734645757878</v>
+        <v>-0.3221742123162708</v>
       </c>
       <c r="D93">
-        <v>0.2237714612989571</v>
+        <v>0.0166582999622559</v>
       </c>
       <c r="E93">
-        <v>-0.04392945819794988</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.00915171406128658</v>
+      </c>
+      <c r="F93">
+        <v>-0.04177507601925774</v>
+      </c>
+      <c r="G93">
+        <v>0.004801219235336665</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02538641449924941</v>
+        <v>-0.3027069404434831</v>
       </c>
       <c r="C94">
-        <v>-0.2051663119492173</v>
+        <v>0.1883701391437547</v>
       </c>
       <c r="D94">
-        <v>-0.2431471261231247</v>
+        <v>0.01417214493371496</v>
       </c>
       <c r="E94">
-        <v>-0.05354356001438581</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.148491189793805</v>
+      </c>
+      <c r="F94">
+        <v>-0.496284167512579</v>
+      </c>
+      <c r="G94">
+        <v>-0.173275249733252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.0048151161714041</v>
+        <v>-0.085076184511696</v>
       </c>
       <c r="C95">
-        <v>-0.05472298849975709</v>
+        <v>0.07333393468065051</v>
       </c>
       <c r="D95">
-        <v>-0.0949862102042334</v>
+        <v>0.008236999271826972</v>
       </c>
       <c r="E95">
-        <v>-0.111703540450629</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06613658026951647</v>
+      </c>
+      <c r="F95">
+        <v>0.1538029937893635</v>
+      </c>
+      <c r="G95">
+        <v>-0.06616633227390167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.009826000551820079</v>
+        <v>-0.1987791610978548</v>
       </c>
       <c r="C98">
-        <v>-0.1672563524746878</v>
+        <v>0.04177656802893842</v>
       </c>
       <c r="D98">
-        <v>-0.1158848023977032</v>
+        <v>0.01422822927928423</v>
       </c>
       <c r="E98">
-        <v>-0.05077952480836402</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06381654663234076</v>
+      </c>
+      <c r="F98">
+        <v>0.2501257695156884</v>
+      </c>
+      <c r="G98">
+        <v>-0.02932980759730608</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007333681098783383</v>
+        <v>-0.01015431720785531</v>
       </c>
       <c r="C101">
-        <v>-0.01761905397002329</v>
+        <v>0.01914027487494399</v>
       </c>
       <c r="D101">
-        <v>-0.01015847649741419</v>
+        <v>-0.007281509482062971</v>
       </c>
       <c r="E101">
-        <v>0.007636945890575638</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.007549121715090435</v>
+      </c>
+      <c r="F101">
+        <v>-0.01304098210060943</v>
+      </c>
+      <c r="G101">
+        <v>0.04226782735132083</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01603000955213058</v>
+        <v>-0.1189416732514105</v>
       </c>
       <c r="C102">
-        <v>-0.09365148609592015</v>
+        <v>0.08539714882329391</v>
       </c>
       <c r="D102">
-        <v>-0.1247176342947375</v>
+        <v>-0.001688139457577912</v>
       </c>
       <c r="E102">
-        <v>-0.0112986149878263</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.02916055764540275</v>
+      </c>
+      <c r="F102">
+        <v>-0.03469748570103849</v>
+      </c>
+      <c r="G102">
+        <v>-0.001033304631512061</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.00141569010555882</v>
+        <v>-0.003619241826622229</v>
       </c>
       <c r="C103">
-        <v>-0.01250316945662151</v>
+        <v>0.005162623867329155</v>
       </c>
       <c r="D103">
-        <v>-0.02670199916065298</v>
+        <v>-0.000143096026775559</v>
       </c>
       <c r="E103">
-        <v>0.01535185275004971</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.00150409618821395</v>
+      </c>
+      <c r="F103">
+        <v>-0.008701019380138647</v>
+      </c>
+      <c r="G103">
+        <v>0.01592059073586105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9813756291782182</v>
+        <v>-0.02874852952044518</v>
       </c>
       <c r="C104">
-        <v>0.13635659247586</v>
+        <v>-0.03878735463807268</v>
       </c>
       <c r="D104">
-        <v>0.004627841128115194</v>
+        <v>-0.9875613170450377</v>
       </c>
       <c r="E104">
-        <v>0.02475144134451749</v>
+        <v>0.03748141852278782</v>
+      </c>
+      <c r="F104">
+        <v>-0.04098976244615295</v>
+      </c>
+      <c r="G104">
+        <v>-0.01221648452644722</v>
       </c>
     </row>
   </sheetData>
